--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>49.7904846230126</v>
+        <v>0.2821546666666667</v>
       </c>
       <c r="H2">
-        <v>49.7904846230126</v>
+        <v>0.846464</v>
       </c>
       <c r="I2">
-        <v>0.6201268107938066</v>
+        <v>0.003251136722938652</v>
       </c>
       <c r="J2">
-        <v>0.6201268107938066</v>
+        <v>0.003251136722938651</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06386428988939449</v>
+        <v>0.1067053333333333</v>
       </c>
       <c r="N2">
-        <v>0.06386428988939449</v>
+        <v>0.320116</v>
       </c>
       <c r="O2">
-        <v>0.0003935133068412217</v>
+        <v>0.0004703131782773351</v>
       </c>
       <c r="P2">
-        <v>0.0003935133068412217</v>
+        <v>0.000470313178277335</v>
       </c>
       <c r="Q2">
-        <v>3.179833943697516</v>
+        <v>0.03010740775822222</v>
       </c>
       <c r="R2">
-        <v>3.179833943697516</v>
+        <v>0.270966669824</v>
       </c>
       <c r="S2">
-        <v>0.0002440281519763715</v>
+        <v>1.529052445179437E-06</v>
       </c>
       <c r="T2">
-        <v>0.0002440281519763715</v>
+        <v>1.529052445179437E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -593,49 +599,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>49.7904846230126</v>
+        <v>0.2821546666666667</v>
       </c>
       <c r="H3">
-        <v>49.7904846230126</v>
+        <v>0.846464</v>
       </c>
       <c r="I3">
-        <v>0.6201268107938066</v>
+        <v>0.003251136722938652</v>
       </c>
       <c r="J3">
-        <v>0.6201268107938066</v>
+        <v>0.003251136722938651</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>55.795630069319</v>
+        <v>0.08113566666666668</v>
       </c>
       <c r="N3">
-        <v>55.795630069319</v>
+        <v>0.243407</v>
       </c>
       <c r="O3">
-        <v>0.3437965556947868</v>
+        <v>0.0003576126147551242</v>
       </c>
       <c r="P3">
-        <v>0.3437965556947868</v>
+        <v>0.0003576126147551241</v>
       </c>
       <c r="Q3">
-        <v>2778.091460997728</v>
+        <v>0.02289280698311112</v>
       </c>
       <c r="R3">
-        <v>2778.091460997728</v>
+        <v>0.206035262848</v>
       </c>
       <c r="S3">
-        <v>0.2131974616449035</v>
+        <v>1.162647504416497E-06</v>
       </c>
       <c r="T3">
-        <v>0.2131974616449035</v>
+        <v>1.162647504416497E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -655,173 +661,173 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>49.7904846230126</v>
+        <v>0.2821546666666667</v>
       </c>
       <c r="H4">
-        <v>49.7904846230126</v>
+        <v>0.846464</v>
       </c>
       <c r="I4">
-        <v>0.6201268107938066</v>
+        <v>0.003251136722938652</v>
       </c>
       <c r="J4">
-        <v>0.6201268107938066</v>
+        <v>0.003251136722938651</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>106.433085787676</v>
+        <v>57.87945166666666</v>
       </c>
       <c r="N4">
-        <v>106.433085787676</v>
+        <v>173.638355</v>
       </c>
       <c r="O4">
-        <v>0.6558099309983719</v>
+        <v>0.2551087937213329</v>
       </c>
       <c r="P4">
-        <v>0.6558099309983719</v>
+        <v>0.2551087937213328</v>
       </c>
       <c r="Q4">
-        <v>5299.354921291063</v>
+        <v>16.33095739185778</v>
       </c>
       <c r="R4">
-        <v>5299.354921291063</v>
+        <v>146.97861652672</v>
       </c>
       <c r="S4">
-        <v>0.4066853209969267</v>
+        <v>0.0008293935676120067</v>
       </c>
       <c r="T4">
-        <v>0.4066853209969267</v>
+        <v>0.0008293935676120063</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>30.500326476216</v>
+        <v>0.2821546666666667</v>
       </c>
       <c r="H5">
-        <v>30.500326476216</v>
+        <v>0.846464</v>
       </c>
       <c r="I5">
-        <v>0.3798731892061934</v>
+        <v>0.003251136722938652</v>
       </c>
       <c r="J5">
-        <v>0.3798731892061934</v>
+        <v>0.003251136722938651</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06386428988939449</v>
+        <v>168.748281</v>
       </c>
       <c r="N5">
-        <v>0.06386428988939449</v>
+        <v>506.244843</v>
       </c>
       <c r="O5">
-        <v>0.0003935133068412217</v>
+        <v>0.7437729482370158</v>
       </c>
       <c r="P5">
-        <v>0.0003935133068412217</v>
+        <v>0.7437729482370156</v>
       </c>
       <c r="Q5">
-        <v>1.947881691798233</v>
+        <v>47.613114976128</v>
       </c>
       <c r="R5">
-        <v>1.947881691798233</v>
+        <v>428.518034785152</v>
       </c>
       <c r="S5">
-        <v>0.0001494851548648503</v>
+        <v>0.002418107545541711</v>
       </c>
       <c r="T5">
-        <v>0.0001494851548648503</v>
+        <v>0.00241810754554171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>30.500326476216</v>
+        <v>0.2821546666666667</v>
       </c>
       <c r="H6">
-        <v>30.500326476216</v>
+        <v>0.846464</v>
       </c>
       <c r="I6">
-        <v>0.3798731892061934</v>
+        <v>0.003251136722938652</v>
       </c>
       <c r="J6">
-        <v>0.3798731892061934</v>
+        <v>0.003251136722938651</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>55.795630069319</v>
+        <v>0.065871</v>
       </c>
       <c r="N6">
-        <v>55.795630069319</v>
+        <v>0.197613</v>
       </c>
       <c r="O6">
-        <v>0.3437965556947868</v>
+        <v>0.0002903322486189976</v>
       </c>
       <c r="P6">
-        <v>0.3437965556947868</v>
+        <v>0.0002903322486189975</v>
       </c>
       <c r="Q6">
-        <v>1701.784933060404</v>
+        <v>0.018585810048</v>
       </c>
       <c r="R6">
-        <v>1701.784933060404</v>
+        <v>0.167272290432</v>
       </c>
       <c r="S6">
-        <v>0.1305990940498834</v>
+        <v>9.439098353385777E-07</v>
       </c>
       <c r="T6">
-        <v>0.1305990940498834</v>
+        <v>9.439098353385773E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>55.96940366666666</v>
+      </c>
+      <c r="H7">
+        <v>167.908211</v>
+      </c>
+      <c r="I7">
+        <v>0.6449093533393406</v>
+      </c>
+      <c r="J7">
+        <v>0.6449093533393405</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1067053333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.320116</v>
+      </c>
+      <c r="O7">
+        <v>0.0004703131782773351</v>
+      </c>
+      <c r="P7">
+        <v>0.000470313178277335</v>
+      </c>
+      <c r="Q7">
+        <v>5.972233874719556</v>
+      </c>
+      <c r="R7">
+        <v>53.750104872476</v>
+      </c>
+      <c r="S7">
+        <v>0.0003033093676698063</v>
+      </c>
+      <c r="T7">
+        <v>0.0003033093676698061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>55.96940366666666</v>
+      </c>
+      <c r="H8">
+        <v>167.908211</v>
+      </c>
+      <c r="I8">
+        <v>0.6449093533393406</v>
+      </c>
+      <c r="J8">
+        <v>0.6449093533393405</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.08113566666666668</v>
+      </c>
+      <c r="N8">
+        <v>0.243407</v>
+      </c>
+      <c r="O8">
+        <v>0.0003576126147551242</v>
+      </c>
+      <c r="P8">
+        <v>0.0003576126147551241</v>
+      </c>
+      <c r="Q8">
+        <v>4.541114879430778</v>
+      </c>
+      <c r="R8">
+        <v>40.870033914877</v>
+      </c>
+      <c r="S8">
+        <v>0.0002306277201277179</v>
+      </c>
+      <c r="T8">
+        <v>0.0002306277201277178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>55.96940366666666</v>
+      </c>
+      <c r="H9">
+        <v>167.908211</v>
+      </c>
+      <c r="I9">
+        <v>0.6449093533393406</v>
+      </c>
+      <c r="J9">
+        <v>0.6449093533393405</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>57.87945166666666</v>
+      </c>
+      <c r="N9">
+        <v>173.638355</v>
+      </c>
+      <c r="O9">
+        <v>0.2551087937213329</v>
+      </c>
+      <c r="P9">
+        <v>0.2551087937213328</v>
+      </c>
+      <c r="Q9">
+        <v>3239.478394336989</v>
+      </c>
+      <c r="R9">
+        <v>29155.3055490329</v>
+      </c>
+      <c r="S9">
+        <v>0.164522047190004</v>
+      </c>
+      <c r="T9">
+        <v>0.164522047190004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>55.96940366666666</v>
+      </c>
+      <c r="H10">
+        <v>167.908211</v>
+      </c>
+      <c r="I10">
+        <v>0.6449093533393406</v>
+      </c>
+      <c r="J10">
+        <v>0.6449093533393405</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>168.748281</v>
+      </c>
+      <c r="N10">
+        <v>506.244843</v>
+      </c>
+      <c r="O10">
+        <v>0.7437729482370158</v>
+      </c>
+      <c r="P10">
+        <v>0.7437729482370156</v>
+      </c>
+      <c r="Q10">
+        <v>9444.740657345095</v>
+      </c>
+      <c r="R10">
+        <v>85002.66591610588</v>
+      </c>
+      <c r="S10">
+        <v>0.4796661310788287</v>
+      </c>
+      <c r="T10">
+        <v>0.4796661310788285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>55.96940366666666</v>
+      </c>
+      <c r="H11">
+        <v>167.908211</v>
+      </c>
+      <c r="I11">
+        <v>0.6449093533393406</v>
+      </c>
+      <c r="J11">
+        <v>0.6449093533393405</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.065871</v>
+      </c>
+      <c r="N11">
+        <v>0.197613</v>
+      </c>
+      <c r="O11">
+        <v>0.0002903322486189976</v>
+      </c>
+      <c r="P11">
+        <v>0.0002903322486189975</v>
+      </c>
+      <c r="Q11">
+        <v>3.686760588927</v>
+      </c>
+      <c r="R11">
+        <v>33.18084530034299</v>
+      </c>
+      <c r="S11">
+        <v>0.0001872379827104344</v>
+      </c>
+      <c r="T11">
+        <v>0.0001872379827104343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>30.53490766666667</v>
+      </c>
+      <c r="H12">
+        <v>91.60472300000001</v>
+      </c>
+      <c r="I12">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="J12">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1067053333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.320116</v>
+      </c>
+      <c r="O12">
+        <v>0.0004703131782773351</v>
+      </c>
+      <c r="P12">
+        <v>0.000470313178277335</v>
+      </c>
+      <c r="Q12">
+        <v>3.258237500874222</v>
+      </c>
+      <c r="R12">
+        <v>29.324137507868</v>
+      </c>
+      <c r="S12">
+        <v>0.0001654747581623495</v>
+      </c>
+      <c r="T12">
+        <v>0.0001654747581623495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>30.53490766666667</v>
+      </c>
+      <c r="H13">
+        <v>91.60472300000001</v>
+      </c>
+      <c r="I13">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="J13">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.08113566666666668</v>
+      </c>
+      <c r="N13">
+        <v>0.243407</v>
+      </c>
+      <c r="O13">
+        <v>0.0003576126147551242</v>
+      </c>
+      <c r="P13">
+        <v>0.0003576126147551241</v>
+      </c>
+      <c r="Q13">
+        <v>2.477470090140112</v>
+      </c>
+      <c r="R13">
+        <v>22.297230811261</v>
+      </c>
+      <c r="S13">
+        <v>0.0001258222471229898</v>
+      </c>
+      <c r="T13">
+        <v>0.0001258222471229898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>30.500326476216</v>
-      </c>
-      <c r="H7">
-        <v>30.500326476216</v>
-      </c>
-      <c r="I7">
-        <v>0.3798731892061934</v>
-      </c>
-      <c r="J7">
-        <v>0.3798731892061934</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>106.433085787676</v>
-      </c>
-      <c r="N7">
-        <v>106.433085787676</v>
-      </c>
-      <c r="O7">
-        <v>0.6558099309983719</v>
-      </c>
-      <c r="P7">
-        <v>0.6558099309983719</v>
-      </c>
-      <c r="Q7">
-        <v>3246.243864395223</v>
-      </c>
-      <c r="R7">
-        <v>3246.243864395223</v>
-      </c>
-      <c r="S7">
-        <v>0.2491246100014452</v>
-      </c>
-      <c r="T7">
-        <v>0.2491246100014452</v>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>30.53490766666667</v>
+      </c>
+      <c r="H14">
+        <v>91.60472300000001</v>
+      </c>
+      <c r="I14">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="J14">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>57.87945166666666</v>
+      </c>
+      <c r="N14">
+        <v>173.638355</v>
+      </c>
+      <c r="O14">
+        <v>0.2551087937213329</v>
+      </c>
+      <c r="P14">
+        <v>0.2551087937213328</v>
+      </c>
+      <c r="Q14">
+        <v>1767.343712438963</v>
+      </c>
+      <c r="R14">
+        <v>15906.09341195067</v>
+      </c>
+      <c r="S14">
+        <v>0.08975735296371688</v>
+      </c>
+      <c r="T14">
+        <v>0.08975735296371684</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>30.53490766666667</v>
+      </c>
+      <c r="H15">
+        <v>91.60472300000001</v>
+      </c>
+      <c r="I15">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="J15">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>168.748281</v>
+      </c>
+      <c r="N15">
+        <v>506.244843</v>
+      </c>
+      <c r="O15">
+        <v>0.7437729482370158</v>
+      </c>
+      <c r="P15">
+        <v>0.7437729482370156</v>
+      </c>
+      <c r="Q15">
+        <v>5152.713179243721</v>
+      </c>
+      <c r="R15">
+        <v>46374.41861319349</v>
+      </c>
+      <c r="S15">
+        <v>0.2616887096126455</v>
+      </c>
+      <c r="T15">
+        <v>0.2616887096126453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>30.53490766666667</v>
+      </c>
+      <c r="H16">
+        <v>91.60472300000001</v>
+      </c>
+      <c r="I16">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="J16">
+        <v>0.3518395099377208</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.065871</v>
+      </c>
+      <c r="N16">
+        <v>0.197613</v>
+      </c>
+      <c r="O16">
+        <v>0.0002903322486189976</v>
+      </c>
+      <c r="P16">
+        <v>0.0002903322486189975</v>
+      </c>
+      <c r="Q16">
+        <v>2.011364902911</v>
+      </c>
+      <c r="R16">
+        <v>18.102284126199</v>
+      </c>
+      <c r="S16">
+        <v>0.0001021503560732246</v>
+      </c>
+      <c r="T16">
+        <v>0.0001021503560732246</v>
       </c>
     </row>
   </sheetData>
